--- a/Dmitri/datasets_34_1110834_LCDataDictionary_v2.xlsx
+++ b/Dmitri/datasets_34_1110834_LCDataDictionary_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Central\NYCDSA\_4_LC\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Central\NYCDSA\_4_LC\repo\Dmitri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B44F6-5595-46AD-B46D-9B4BF299B2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E068BE3D-D9FE-4AAE-9F97-922FECF439ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$B$1:$D$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
     <author>Dmitri Levonian</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2EAEB9B6-C802-4D08-8807-92501FA65191}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{2EAEB9B6-C802-4D08-8807-92501FA65191}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{19A2DF93-7363-471E-B1B1-CF7430EF2501}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{19A2DF93-7363-471E-B1B1-CF7430EF2501}">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2073,6 +2073,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2471,4499 +2475,4967 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="6" customWidth="1"/>
-    <col min="8" max="10" width="16" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="27">
-        <f>VLOOKUP(A2,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C2" s="27">
+        <f>VLOOKUP(B2,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="35">
-        <v>1</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="9">
-        <f>E2-G2</f>
-        <v>0</v>
-      </c>
+      <c r="E2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
       <c r="G2" s="9">
+        <f>F2-H2</f>
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="27">
-        <f>VLOOKUP(A3,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C3" s="27">
+        <f>VLOOKUP(B3,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97785509892727962</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="35">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F66" si="0">E3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3" s="35">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G66" si="0">F3-H3</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27">
-        <f>VLOOKUP(A4,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C4" s="27">
+        <f>VLOOKUP(B4,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="27">
-        <f>VLOOKUP(A5,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C5" s="27">
+        <f>VLOOKUP(B5,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61676444607225811</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="35">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="9">
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
       <c r="H5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27">
-        <f>VLOOKUP(A6,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C6" s="27">
+        <f>VLOOKUP(B6,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.9999836333951283</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="27">
-        <f>VLOOKUP(A7,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C7" s="27">
+        <f>VLOOKUP(B7,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>5.3394942542158381E-2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="27">
-        <f>VLOOKUP(A8,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C8" s="27">
+        <f>VLOOKUP(B8,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="36">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="27">
-        <f>VLOOKUP(A9,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C9" s="27">
+        <f>VLOOKUP(B9,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.9688685058307136</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="34">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9">
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="27">
-        <f>VLOOKUP(A10,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C10" s="27">
+        <f>VLOOKUP(B10,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96683860448595371</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="34">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9">
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="27">
-        <f>VLOOKUP(A11,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C11" s="27">
+        <f>VLOOKUP(B11,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96633610548232607</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="35">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="9">
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="27">
-        <f>VLOOKUP(A12,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C12" s="27">
+        <f>VLOOKUP(B12,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99992126336034703</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="9">
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="27">
-        <f>VLOOKUP(A13,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C13" s="27">
+        <f>VLOOKUP(B13,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="9">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="27">
-        <f>VLOOKUP(A14,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C14" s="27">
+        <f>VLOOKUP(B14,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99992126336034703</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="35">
-        <v>1</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="9">
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="27">
-        <f>VLOOKUP(A15,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C15" s="27">
+        <f>VLOOKUP(B15,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="9">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="27">
-        <f>VLOOKUP(A16,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C16" s="27">
+        <f>VLOOKUP(B16,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="9">
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="27">
-        <f>VLOOKUP(A17,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C17" s="27">
+        <f>VLOOKUP(B17,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>5.5764561523173564E-2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="36">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="27">
-        <f>VLOOKUP(A18,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C18" s="27">
+        <f>VLOOKUP(B18,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99922855786767029</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="36">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="36">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="27">
-        <f>VLOOKUP(A19,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C19" s="27">
+        <f>VLOOKUP(B19,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>5.3393173179469552E-2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="27">
-        <f>VLOOKUP(A20,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C20" s="27">
+        <f>VLOOKUP(B20,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="36">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="36">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="27">
-        <f>VLOOKUP(A21,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C21" s="27">
+        <f>VLOOKUP(B21,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.93500246162584089</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="36">
-        <v>1</v>
-      </c>
-      <c r="E21" s="29">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="36">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="27">
-        <f>VLOOKUP(A22,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C22" s="27">
+        <f>VLOOKUP(B22,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.92612822306001541</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="36">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="27">
-        <f>VLOOKUP(A23,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C23" s="27">
+        <f>VLOOKUP(B23,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="36">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="36">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="27">
-        <f>VLOOKUP(A24,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C24" s="27">
+        <f>VLOOKUP(B24,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="36">
-        <v>1</v>
-      </c>
-      <c r="E24" s="29">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="36">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="27">
-        <f>VLOOKUP(A25,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C25" s="27">
+        <f>VLOOKUP(B25,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="29">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="9">
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="27">
-        <f>VLOOKUP(A26,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C26" s="27">
+        <f>VLOOKUP(B26,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="9">
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="27">
-        <f>VLOOKUP(A27,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C27" s="27">
+        <f>VLOOKUP(B27,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="36">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E27" s="36">
+        <v>1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="27">
-        <f>VLOOKUP(A28,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C28" s="27">
+        <f>VLOOKUP(B28,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="36">
-        <v>1</v>
-      </c>
-      <c r="E28" s="29">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="36">
+        <v>1</v>
+      </c>
+      <c r="F28" s="29">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="27">
-        <f>VLOOKUP(A29,Lookups!$B$2:$E$152,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="27">
+        <f>VLOOKUP(B29,Lookups!$B$2:$E$152,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="36">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="36">
+        <v>1</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="27">
-        <f>VLOOKUP(A30,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C30" s="27">
+        <f>VLOOKUP(B30,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.52718957526890997</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="9">
+      <c r="E30" s="30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
       <c r="H30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="27">
-        <f>VLOOKUP(A31,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C31" s="27">
+        <f>VLOOKUP(B31,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="36">
-        <v>1</v>
-      </c>
-      <c r="E31" s="29">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="E31" s="36">
+        <v>1</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="27">
-        <f>VLOOKUP(A32,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C32" s="27">
+        <f>VLOOKUP(B32,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="30">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="9">
+      <c r="E32" s="30">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="27">
-        <f>VLOOKUP(A33,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C33" s="27">
+        <f>VLOOKUP(B33,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686087633879938</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D33" s="30">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="9">
+      <c r="E33" s="30">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
       <c r="H33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="27">
-        <f>VLOOKUP(A34,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C34" s="27">
+        <f>VLOOKUP(B34,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997213253765094</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="30">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="9">
+      <c r="E34" s="30">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="27">
-        <f>VLOOKUP(A35,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C35" s="27">
+        <f>VLOOKUP(B35,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="36">
-        <v>1</v>
-      </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="36">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="27">
-        <f>VLOOKUP(A36,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C36" s="27">
+        <f>VLOOKUP(B36,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="E36" s="36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="27">
-        <f>VLOOKUP(A37,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C37" s="27">
+        <f>VLOOKUP(B37,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="36">
-        <v>1</v>
-      </c>
-      <c r="E37" s="29">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="36">
+        <v>1</v>
+      </c>
+      <c r="F37" s="29">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="27">
-        <f>VLOOKUP(A38,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C38" s="27">
+        <f>VLOOKUP(B38,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99995355422941823</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="29">
-        <v>0</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="9">
+      <c r="E38" s="29">
+        <v>0</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="38">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="27">
-        <f>VLOOKUP(A39,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C39" s="27">
+        <f>VLOOKUP(B39,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="29">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="9">
+      <c r="E39" s="29">
+        <v>0</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="27">
-        <f>VLOOKUP(A40,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C40" s="27">
+        <f>VLOOKUP(B40,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="29">
-        <v>0</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="9">
+      <c r="E40" s="29">
+        <v>0</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="27">
-        <f>VLOOKUP(A41,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C41" s="27">
+        <f>VLOOKUP(B41,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="29">
-        <v>0</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="9">
+      <c r="E41" s="29">
+        <v>0</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="27">
-        <f>VLOOKUP(A42,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C42" s="27">
+        <f>VLOOKUP(B42,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99891184194636973</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="29">
-        <v>0</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="9">
+      <c r="E42" s="29">
+        <v>0</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="27">
-        <f>VLOOKUP(A43,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C43" s="27">
+        <f>VLOOKUP(B43,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="36">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="E43" s="36">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="38">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="27">
-        <f>VLOOKUP(A44,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C44" s="27">
+        <f>VLOOKUP(B44,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="29">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="9">
+      <c r="E44" s="29">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
       <c r="H44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="38">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="27">
-        <f>VLOOKUP(A45,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C45" s="27">
+        <f>VLOOKUP(B45,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="31">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="9">
+      <c r="E45" s="31">
+        <v>1</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="27">
-        <f>VLOOKUP(A46,Lookups!$B$2:$E$152,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="38">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="27">
+        <f>VLOOKUP(B46,Lookups!$B$2:$E$152,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="36">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="E46" s="36">
+        <v>1</v>
+      </c>
+      <c r="F46" s="29">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="11"/>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10"/>
       <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="38">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="27">
-        <f>VLOOKUP(A47,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C47" s="27">
+        <f>VLOOKUP(B47,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.93846864313325817</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="32">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="32">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="10"/>
       <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="38">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="27">
-        <f>VLOOKUP(A48,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C48" s="27">
+        <f>VLOOKUP(B48,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889902733709588</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="32">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9">
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12"/>
       <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="27">
-        <f>VLOOKUP(A49,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C49" s="27">
+        <f>VLOOKUP(B49,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889902733709588</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="32">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49" s="32">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="38">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="27">
-        <f>VLOOKUP(A50,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C50" s="27">
+        <f>VLOOKUP(B50,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="32">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="38">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B51" s="27">
-        <f>VLOOKUP(A51,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C51" s="27">
+        <f>VLOOKUP(B51,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97785509892727962</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="32">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
       <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="38">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="27">
-        <f>VLOOKUP(A52,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C52" s="27">
+        <f>VLOOKUP(B52,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.48753284932416979</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="32">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9">
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="38">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="27">
-        <f>VLOOKUP(A53,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C53" s="27">
+        <f>VLOOKUP(B53,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.25690040390126778</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="32">
-        <v>1</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E53" s="32">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
       <c r="H53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="38">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="27">
-        <f>VLOOKUP(A54,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C54" s="27">
+        <f>VLOOKUP(B54,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.15886930646733027</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="31">
-        <v>1</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="9">
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="38">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B55" s="27">
-        <f>VLOOKUP(A55,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C55" s="27">
+        <f>VLOOKUP(B55,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.59748900894014734</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D55" s="32">
-        <v>1</v>
-      </c>
-      <c r="F55" s="9">
+      <c r="E55" s="32">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
       <c r="H55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="38">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="27">
-        <f>VLOOKUP(A56,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C56" s="27">
+        <f>VLOOKUP(B56,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96751228932972555</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="32">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9">
+      <c r="E56" s="32">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
       <c r="H56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="38">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B57" s="27">
-        <f>VLOOKUP(A57,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C57" s="27">
+        <f>VLOOKUP(B57,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.22988488968687146</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D57" s="32">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="32">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="38">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="27">
-        <f>VLOOKUP(A58,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C58" s="27">
+        <f>VLOOKUP(B58,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.86930248626421625</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="32">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E58" s="32">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="38">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="27">
-        <f>VLOOKUP(A59,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C59" s="27">
+        <f>VLOOKUP(B59,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.32749089773481765</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="32">
-        <v>1</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="32">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="27">
-        <f>VLOOKUP(A60,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C60" s="27">
+        <f>VLOOKUP(B60,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.40490007303044501</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="29">
-        <v>0</v>
-      </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="9">
+      <c r="E60" s="29">
+        <v>0</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
       <c r="H60" s="1">
         <v>0</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="38">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="27">
-        <f>VLOOKUP(A61,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C61" s="27">
+        <f>VLOOKUP(B61,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="33">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="9">
+      <c r="E61" s="33">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="38">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="27">
-        <f>VLOOKUP(A62,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C62" s="27">
+        <f>VLOOKUP(B62,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="33">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="9">
+      <c r="E62" s="33">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="38">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="27">
-        <f>VLOOKUP(A63,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C63" s="27">
+        <f>VLOOKUP(B63,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="33">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9">
+      <c r="E63" s="33">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="38">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="27">
-        <f>VLOOKUP(A64,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C64" s="27">
+        <f>VLOOKUP(B64,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97406866277318405</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="33">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9">
+      <c r="E64" s="33">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
       <c r="H64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="38">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="27">
-        <f>VLOOKUP(A65,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C65" s="27">
+        <f>VLOOKUP(B65,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="33">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9">
+      <c r="E65" s="33">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="38">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="27">
-        <f>VLOOKUP(A66,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C66" s="27">
+        <f>VLOOKUP(B66,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="33">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9">
+      <c r="E66" s="33">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="38">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="27">
-        <f>VLOOKUP(A67,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C67" s="27">
+        <f>VLOOKUP(B67,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="33">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9">
-        <f t="shared" ref="F67:F130" si="1">E67-G67</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="E67" s="33">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9">
+        <f t="shared" ref="G67:G130" si="1">F67-H67</f>
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="38">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="27">
-        <f>VLOOKUP(A68,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C68" s="27">
+        <f>VLOOKUP(B68,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889902733709588</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="33">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9">
+      <c r="E68" s="33">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
       <c r="H68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="38">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="27">
-        <f>VLOOKUP(A69,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C69" s="27">
+        <f>VLOOKUP(B69,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="33">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9">
+      <c r="E69" s="33">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="38">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="27">
-        <f>VLOOKUP(A70,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C70" s="27">
+        <f>VLOOKUP(B70,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97406866277318405</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="33">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="9">
+      <c r="E70" s="33">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="38">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="27">
-        <f>VLOOKUP(A71,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C71" s="27">
+        <f>VLOOKUP(B71,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.93201666208844069</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="33">
-        <v>1</v>
-      </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="9">
+      <c r="E71" s="33">
+        <v>1</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
       <c r="H71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="38">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="27">
-        <f>VLOOKUP(A72,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C72" s="27">
+        <f>VLOOKUP(B72,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="33">
-        <v>1</v>
-      </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="9">
+      <c r="E72" s="33">
+        <v>1</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="G72" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="38">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="27">
-        <f>VLOOKUP(A73,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C73" s="27">
+        <f>VLOOKUP(B73,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="32">
-        <v>1</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="E73" s="32">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="38">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="27">
-        <f>VLOOKUP(A74,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C74" s="27">
+        <f>VLOOKUP(B74,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D74" s="32">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E74" s="32">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
       <c r="H74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="38">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="27">
-        <f>VLOOKUP(A75,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C75" s="27">
+        <f>VLOOKUP(B75,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="33">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="9">
+      <c r="E75" s="36">
+        <v>1</v>
+      </c>
+      <c r="F75" s="10">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="38">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="27">
-        <f>VLOOKUP(A76,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C76" s="27">
+        <f>VLOOKUP(B76,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686087633879938</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="33">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="9">
+      <c r="E76" s="33">
+        <v>1</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="8">
-        <v>0</v>
-      </c>
       <c r="H76" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="38">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="27">
-        <f>VLOOKUP(A77,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C77" s="27">
+        <f>VLOOKUP(B77,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D77" s="33">
-        <v>1</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="9">
+      <c r="E77" s="33">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="9">
-        <v>0</v>
-      </c>
       <c r="H77" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="38">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="27">
-        <f>VLOOKUP(A78,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C78" s="27">
+        <f>VLOOKUP(B78,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D78" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D78" s="33">
-        <v>1</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="9">
+      <c r="E78" s="33">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="9">
-        <v>0</v>
-      </c>
       <c r="H78" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="38">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="27">
-        <f>VLOOKUP(A79,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C79" s="27">
+        <f>VLOOKUP(B79,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D79" s="33">
-        <v>1</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="9">
+      <c r="E79" s="33">
+        <v>1</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="9">
-        <v>0</v>
-      </c>
       <c r="H79" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="38">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B80" s="27">
-        <f>VLOOKUP(A80,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C80" s="27">
+        <f>VLOOKUP(B80,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="33">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="9">
+      <c r="E80" s="33">
+        <v>1</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
       <c r="H80" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="38">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B81" s="27">
-        <f>VLOOKUP(A81,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C81" s="27">
+        <f>VLOOKUP(B81,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="33">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="9">
+      <c r="E81" s="33">
+        <v>1</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="9">
-        <v>0</v>
-      </c>
       <c r="H81" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="38">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="27">
-        <f>VLOOKUP(A82,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C82" s="27">
+        <f>VLOOKUP(B82,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="29">
-        <v>0</v>
-      </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="9">
+      <c r="E82" s="29">
+        <v>0</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
       <c r="H82" s="1">
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="38">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="27">
-        <f>VLOOKUP(A83,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C83" s="27">
+        <f>VLOOKUP(B83,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="29">
-        <v>0</v>
-      </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="9">
+      <c r="E83" s="29">
+        <v>0</v>
+      </c>
+      <c r="F83" s="29"/>
+      <c r="G83" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
       <c r="H83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="38">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="27">
-        <f>VLOOKUP(A84,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C84" s="27">
+        <f>VLOOKUP(B84,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96883090687357598</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="33">
-        <v>1</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="9">
+      <c r="E84" s="33">
+        <v>1</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
       <c r="H84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="38">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B85" s="27">
-        <f>VLOOKUP(A85,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C85" s="27">
+        <f>VLOOKUP(B85,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96664220522749356</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="33">
-        <v>1</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="9">
+      <c r="E85" s="33">
+        <v>1</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
       <c r="H85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="38">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="27">
-        <f>VLOOKUP(A86,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C86" s="27">
+        <f>VLOOKUP(B86,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D86" s="29">
-        <v>0</v>
-      </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="9">
+      <c r="E86" s="29">
+        <v>0</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
       <c r="H86" s="1">
         <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="38">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="27">
-        <f>VLOOKUP(A87,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C87" s="27">
+        <f>VLOOKUP(B87,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="31">
-        <v>1</v>
-      </c>
-      <c r="E87" s="29"/>
-      <c r="F87" s="9">
+      <c r="E87" s="36">
+        <v>1</v>
+      </c>
+      <c r="F87" s="29">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="38">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="27">
-        <f>VLOOKUP(A88,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C88" s="27">
+        <f>VLOOKUP(B88,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99938160774025397</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="32">
-        <v>1</v>
-      </c>
-      <c r="F88" s="9">
+      <c r="E88" s="32">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="38">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="27">
-        <f>VLOOKUP(A89,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C89" s="27">
+        <f>VLOOKUP(B89,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="36">
-        <v>1</v>
-      </c>
-      <c r="E89" s="29">
-        <v>1</v>
-      </c>
-      <c r="F89" s="9">
+      <c r="E89" s="36">
+        <v>1</v>
+      </c>
+      <c r="F89" s="29">
+        <v>1</v>
+      </c>
+      <c r="G89" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="1">
-        <v>1</v>
-      </c>
       <c r="H89" s="1">
         <v>1</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="38">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="27">
-        <f>VLOOKUP(A90,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C90" s="27">
+        <f>VLOOKUP(B90,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="29">
-        <v>0</v>
-      </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="9">
+      <c r="E90" s="29">
+        <v>0</v>
+      </c>
+      <c r="F90" s="29"/>
+      <c r="G90" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="38">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="27">
-        <f>VLOOKUP(A91,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C91" s="27">
+        <f>VLOOKUP(B91,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="29">
-        <v>0</v>
-      </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="9">
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
       <c r="H91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="38">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="27">
-        <f>VLOOKUP(A92,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C92" s="27">
+        <f>VLOOKUP(B92,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="31">
-        <v>1</v>
-      </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="9">
+      <c r="E92" s="36">
+        <v>1</v>
+      </c>
+      <c r="F92" s="29">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="38">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="27">
-        <f>VLOOKUP(A93,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C93" s="27">
+        <f>VLOOKUP(B93,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99918830486649934</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D93" s="31">
-        <v>1</v>
-      </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="9">
+      <c r="E93" s="36">
+        <v>1</v>
+      </c>
+      <c r="F93" s="29">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="38">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="27">
-        <f>VLOOKUP(A94,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C94" s="27">
+        <f>VLOOKUP(B94,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="36">
-        <v>1</v>
-      </c>
-      <c r="E94" s="29">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
+      <c r="E94" s="36">
+        <v>1</v>
+      </c>
+      <c r="F94" s="29">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
       <c r="H94" s="1">
         <v>1</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="38">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="27">
-        <f>VLOOKUP(A95,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C95" s="27">
+        <f>VLOOKUP(B95,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99993895698723534</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="34">
-        <v>1</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="9">
+      <c r="E95" s="34">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
       <c r="H95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="38">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="27">
-        <f>VLOOKUP(A96,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C96" s="27">
+        <f>VLOOKUP(B96,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="36">
-        <v>1</v>
-      </c>
-      <c r="E96" s="29">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
+      <c r="E96" s="36">
+        <v>1</v>
+      </c>
+      <c r="F96" s="29">
+        <v>1</v>
+      </c>
+      <c r="G96" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
       <c r="H96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="38">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="27">
-        <f>VLOOKUP(A97,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C97" s="27">
+        <f>VLOOKUP(B97,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.98966780657857889</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="36">
-        <v>1</v>
-      </c>
-      <c r="E97" s="29">
-        <v>1</v>
-      </c>
-      <c r="F97" s="9">
+      <c r="E97" s="36">
+        <v>1</v>
+      </c>
+      <c r="F97" s="29">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
       <c r="H97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="38">
+        <v>97</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="27">
-        <f>VLOOKUP(A98,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C98" s="27">
+        <f>VLOOKUP(B98,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="D98" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="34">
-        <v>1</v>
-      </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="9">
+      <c r="E98" s="34">
+        <v>1</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
       <c r="H98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="38">
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="27">
-        <f>VLOOKUP(A99,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C99" s="27">
+        <f>VLOOKUP(B99,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D99" s="34">
-        <v>1</v>
-      </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="9">
+      <c r="E99" s="34">
+        <v>1</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G99" s="9">
-        <v>0</v>
-      </c>
       <c r="H99" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="38">
+        <v>99</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="27">
-        <f>VLOOKUP(A100,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C100" s="27">
+        <f>VLOOKUP(B100,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="34">
-        <v>1</v>
-      </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="9">
+      <c r="E100" s="34">
+        <v>1</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="38">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="27">
-        <f>VLOOKUP(A101,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C101" s="27">
+        <f>VLOOKUP(B101,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99997257487832314</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="34">
-        <v>1</v>
-      </c>
-      <c r="E101" s="13"/>
-      <c r="F101" s="9">
+      <c r="E101" s="34">
+        <v>1</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
       <c r="H101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="38">
+        <v>101</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="27">
-        <f>VLOOKUP(A102,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C102" s="27">
+        <f>VLOOKUP(B102,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97785509892727962</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="34">
-        <v>1</v>
-      </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="9">
+      <c r="E102" s="34">
+        <v>1</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="38">
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="27">
-        <f>VLOOKUP(A103,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C103" s="27">
+        <f>VLOOKUP(B103,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686131867947158</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="D103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="34">
-        <v>1</v>
-      </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="9">
+      <c r="E103" s="34">
+        <v>1</v>
+      </c>
+      <c r="F103" s="13"/>
+      <c r="G103" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G103" s="9">
-        <v>0</v>
-      </c>
       <c r="H103" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="38">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="27">
-        <f>VLOOKUP(A104,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C104" s="27">
+        <f>VLOOKUP(B104,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.97785509892727962</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="34">
-        <v>1</v>
-      </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="9">
+      <c r="E104" s="34">
+        <v>1</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
       <c r="H104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="38">
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="27">
-        <f>VLOOKUP(A105,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C105" s="27">
+        <f>VLOOKUP(B105,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.61686087633879938</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D105" s="34">
-        <v>1</v>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="9">
+      <c r="E105" s="34">
+        <v>1</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
       <c r="H105" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="38">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="27">
-        <f>VLOOKUP(A106,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C106" s="27">
+        <f>VLOOKUP(B106,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="34">
-        <v>1</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="9">
+      <c r="E106" s="34">
+        <v>1</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G106" s="3">
-        <v>0</v>
-      </c>
       <c r="H106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="38">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="27">
-        <f>VLOOKUP(A107,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C107" s="27">
+        <f>VLOOKUP(B107,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="29">
-        <v>0</v>
-      </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="9">
+      <c r="E107" s="29">
+        <v>0</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="G107" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
       <c r="H107" s="1">
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="38">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="27">
-        <f>VLOOKUP(A108,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C108" s="27">
+        <f>VLOOKUP(B108,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="29">
-        <v>0</v>
-      </c>
-      <c r="E108" s="29"/>
-      <c r="F108" s="9">
+      <c r="E108" s="29">
+        <v>0</v>
+      </c>
+      <c r="F108" s="29"/>
+      <c r="G108" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
       <c r="H108" s="1">
         <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="38">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B109" s="27">
-        <f>VLOOKUP(A109,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C109" s="27">
+        <f>VLOOKUP(B109,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="29">
-        <v>0</v>
-      </c>
-      <c r="E109" s="29"/>
-      <c r="F109" s="9">
+      <c r="E109" s="29">
+        <v>0</v>
+      </c>
+      <c r="F109" s="29"/>
+      <c r="G109" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="38">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="27">
-        <f>VLOOKUP(A110,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C110" s="27">
+        <f>VLOOKUP(B110,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="29">
-        <v>0</v>
-      </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="9">
+      <c r="E110" s="29">
+        <v>0</v>
+      </c>
+      <c r="F110" s="29"/>
+      <c r="G110" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
       <c r="I110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="38">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="27">
-        <f>VLOOKUP(A111,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C111" s="27">
+        <f>VLOOKUP(B111,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="29">
-        <v>0</v>
-      </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="9">
+      <c r="E111" s="29">
+        <v>0</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
       <c r="H111" s="2">
         <v>0</v>
       </c>
       <c r="I111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="38">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B112" s="27">
-        <f>VLOOKUP(A112,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C112" s="27">
+        <f>VLOOKUP(B112,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.96889946967776808</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="D112" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="34">
-        <v>1</v>
-      </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="9">
+      <c r="E112" s="34">
+        <v>1</v>
+      </c>
+      <c r="F112" s="13"/>
+      <c r="G112" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
       <c r="H112" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="38">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="27">
-        <f>VLOOKUP(A113,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C113" s="27">
+        <f>VLOOKUP(B113,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D113" s="29">
-        <v>0</v>
-      </c>
-      <c r="E113" s="29"/>
-      <c r="F113" s="9">
+      <c r="E113" s="29">
+        <v>0</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="G113" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G113" s="2">
-        <v>0</v>
-      </c>
       <c r="H113" s="2">
         <v>0</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="38">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B114" s="27">
-        <f>VLOOKUP(A114,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C114" s="27">
+        <f>VLOOKUP(B114,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="36">
-        <v>1</v>
-      </c>
-      <c r="E114" s="29">
-        <v>1</v>
-      </c>
-      <c r="F114" s="9">
+      <c r="E114" s="36">
+        <v>1</v>
+      </c>
+      <c r="F114" s="29">
+        <v>1</v>
+      </c>
+      <c r="G114" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
       <c r="H114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="38">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B115" s="27">
-        <f>VLOOKUP(A115,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C115" s="27">
+        <f>VLOOKUP(B115,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>5.1192085994565401E-2</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D115" s="36">
-        <v>1</v>
-      </c>
-      <c r="E115" s="29">
-        <v>1</v>
-      </c>
-      <c r="F115" s="9">
+      <c r="E115" s="36">
+        <v>1</v>
+      </c>
+      <c r="F115" s="29">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G115" s="7">
-        <v>0</v>
-      </c>
       <c r="H115" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="38">
+        <v>115</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="27">
-        <f>VLOOKUP(A116,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C116" s="27">
+        <f>VLOOKUP(B116,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998496041714491</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="D116" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D116" s="36">
-        <v>1</v>
-      </c>
-      <c r="E116" s="29">
-        <v>1</v>
-      </c>
-      <c r="F116" s="9">
+      <c r="E116" s="36">
+        <v>1</v>
+      </c>
+      <c r="F116" s="29">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G116" s="18">
-        <v>1</v>
-      </c>
       <c r="H116" s="18">
         <v>1</v>
       </c>
       <c r="I116" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J116" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="38">
+        <v>116</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="B117" s="27">
-        <f>VLOOKUP(A117,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C117" s="27">
+        <f>VLOOKUP(B117,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7781639411846148E-2</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="D117" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D117" s="32">
-        <v>1</v>
-      </c>
-      <c r="F117" s="9">
+      <c r="E117" s="32">
+        <v>1</v>
+      </c>
+      <c r="G117" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G117" s="18">
-        <v>0</v>
-      </c>
       <c r="H117" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J117" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="38">
+        <v>117</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B118" s="27">
-        <f>VLOOKUP(A118,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C118" s="27">
+        <f>VLOOKUP(B118,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="D118" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="D118" s="32">
-        <v>1</v>
-      </c>
-      <c r="F118" s="9">
+      <c r="E118" s="32">
+        <v>1</v>
+      </c>
+      <c r="G118" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G118" s="18">
-        <v>1</v>
-      </c>
       <c r="H118" s="18">
         <v>1</v>
       </c>
       <c r="I118" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J118" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="38">
+        <v>118</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B119" s="27">
-        <f>VLOOKUP(A119,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C119" s="27">
+        <f>VLOOKUP(B119,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="D119" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D119" s="32">
-        <v>1</v>
-      </c>
-      <c r="F119" s="9">
+      <c r="E119" s="32">
+        <v>1</v>
+      </c>
+      <c r="G119" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G119" s="18">
-        <v>1</v>
-      </c>
       <c r="H119" s="18">
         <v>1</v>
       </c>
       <c r="I119" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="38">
+        <v>119</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B120" s="27">
-        <f>VLOOKUP(A120,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C120" s="27">
+        <f>VLOOKUP(B120,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="D120" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D120" s="32">
-        <v>1</v>
-      </c>
-      <c r="F120" s="9">
+      <c r="E120" s="32">
+        <v>1</v>
+      </c>
+      <c r="G120" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G120" s="18">
-        <v>1</v>
-      </c>
       <c r="H120" s="18">
         <v>1</v>
       </c>
       <c r="I120" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J120" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="38">
+        <v>120</v>
+      </c>
+      <c r="B121" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B121" s="27">
-        <f>VLOOKUP(A121,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C121" s="27">
+        <f>VLOOKUP(B121,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="D121" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D121" s="32">
-        <v>1</v>
-      </c>
-      <c r="F121" s="9">
+      <c r="E121" s="32">
+        <v>1</v>
+      </c>
+      <c r="G121" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G121" s="18">
-        <v>1</v>
-      </c>
       <c r="H121" s="18">
         <v>1</v>
       </c>
       <c r="I121" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J121" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="38">
+        <v>121</v>
+      </c>
+      <c r="B122" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B122" s="27">
-        <f>VLOOKUP(A122,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C122" s="27">
+        <f>VLOOKUP(B122,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="D122" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D122" s="32">
-        <v>1</v>
-      </c>
-      <c r="F122" s="9">
+      <c r="E122" s="32">
+        <v>1</v>
+      </c>
+      <c r="G122" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G122" s="18">
-        <v>1</v>
-      </c>
       <c r="H122" s="18">
         <v>1</v>
       </c>
       <c r="I122" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J122" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="38">
+        <v>122</v>
+      </c>
+      <c r="B123" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B123" s="27">
-        <f>VLOOKUP(A123,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C123" s="27">
+        <f>VLOOKUP(B123,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="D123" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D123" s="32">
-        <v>1</v>
-      </c>
-      <c r="F123" s="9">
+      <c r="E123" s="32">
+        <v>1</v>
+      </c>
+      <c r="G123" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G123" s="18">
-        <v>1</v>
-      </c>
       <c r="H123" s="18">
         <v>1</v>
       </c>
       <c r="I123" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J123" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="38">
+        <v>123</v>
+      </c>
+      <c r="B124" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B124" s="27">
-        <f>VLOOKUP(A124,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C124" s="27">
+        <f>VLOOKUP(B124,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.6969501937673318E-2</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="D124" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D124" s="32">
-        <v>1</v>
-      </c>
-      <c r="F124" s="9">
+      <c r="E124" s="32">
+        <v>1</v>
+      </c>
+      <c r="G124" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G124" s="18">
-        <v>1</v>
-      </c>
       <c r="H124" s="18">
         <v>1</v>
       </c>
       <c r="I124" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J124" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="38">
+        <v>124</v>
+      </c>
+      <c r="B125" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B125" s="27">
-        <f>VLOOKUP(A125,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C125" s="27">
+        <f>VLOOKUP(B125,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="D125" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D125" s="32">
-        <v>1</v>
-      </c>
-      <c r="F125" s="9">
+      <c r="E125" s="32">
+        <v>1</v>
+      </c>
+      <c r="G125" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G125" s="18">
-        <v>1</v>
-      </c>
       <c r="H125" s="18">
         <v>1</v>
       </c>
       <c r="I125" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J125" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="38">
+        <v>125</v>
+      </c>
+      <c r="B126" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="B126" s="27">
-        <f>VLOOKUP(A126,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C126" s="27">
+        <f>VLOOKUP(B126,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="D126" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D126" s="32">
-        <v>1</v>
-      </c>
-      <c r="F126" s="9">
+      <c r="E126" s="32">
+        <v>1</v>
+      </c>
+      <c r="G126" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G126" s="18">
-        <v>1</v>
-      </c>
       <c r="H126" s="18">
         <v>1</v>
       </c>
       <c r="I126" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J126" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="38">
+        <v>126</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B127" s="27">
-        <f>VLOOKUP(A127,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C127" s="27">
+        <f>VLOOKUP(B127,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="D127" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D127" s="32">
-        <v>1</v>
-      </c>
-      <c r="F127" s="9">
+      <c r="E127" s="32">
+        <v>1</v>
+      </c>
+      <c r="G127" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G127" s="18">
-        <v>1</v>
-      </c>
       <c r="H127" s="18">
         <v>1</v>
       </c>
       <c r="I127" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="38">
+        <v>127</v>
+      </c>
+      <c r="B128" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B128" s="27">
-        <f>VLOOKUP(A128,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C128" s="27">
+        <f>VLOOKUP(B128,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.7782081752518357E-2</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="D128" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D128" s="32">
-        <v>1</v>
-      </c>
-      <c r="F128" s="9">
+      <c r="E128" s="32">
+        <v>1</v>
+      </c>
+      <c r="G128" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G128" s="18">
-        <v>1</v>
-      </c>
       <c r="H128" s="18">
         <v>1</v>
       </c>
       <c r="I128" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="38">
+        <v>128</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="27">
-        <f>VLOOKUP(A129,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C129" s="27">
+        <f>VLOOKUP(B129,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5898608440479304E-2</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="D129" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D129" s="32">
-        <v>1</v>
-      </c>
-      <c r="F129" s="9">
+      <c r="E129" s="32">
+        <v>1</v>
+      </c>
+      <c r="G129" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G129" s="18">
-        <v>1</v>
-      </c>
       <c r="H129" s="18">
         <v>1</v>
       </c>
       <c r="I129" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J129" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="38">
+        <v>129</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B130" s="27">
-        <f>VLOOKUP(A130,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C130" s="27">
+        <f>VLOOKUP(B130,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="D130" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D130" s="29">
-        <v>0</v>
-      </c>
-      <c r="E130" s="29"/>
-      <c r="F130" s="9">
+      <c r="E130" s="29">
+        <v>0</v>
+      </c>
+      <c r="F130" s="29"/>
+      <c r="G130" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G130" s="9">
-        <v>0</v>
-      </c>
       <c r="H130" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J130" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="38">
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B131" s="27">
-        <f>VLOOKUP(A131,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C131" s="27">
+        <f>VLOOKUP(B131,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D131" s="29">
-        <v>0</v>
-      </c>
-      <c r="E131" s="29"/>
-      <c r="F131" s="9">
-        <f t="shared" ref="F131:F152" si="2">E131-G131</f>
-        <v>0</v>
-      </c>
+      <c r="E131" s="29">
+        <v>0</v>
+      </c>
+      <c r="F131" s="29"/>
       <c r="G131" s="9">
+        <f t="shared" ref="G131:G152" si="2">F131-H131</f>
         <v>0</v>
       </c>
       <c r="H131" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="38">
+        <v>131</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B132" s="27">
-        <f>VLOOKUP(A132,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C132" s="27">
+        <f>VLOOKUP(B132,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="D132" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D132" s="29">
-        <v>0</v>
-      </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="9">
+      <c r="E132" s="29">
+        <v>0</v>
+      </c>
+      <c r="F132" s="29"/>
+      <c r="G132" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G132" s="9">
-        <v>0</v>
-      </c>
       <c r="H132" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J132" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="38">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="27">
-        <f>VLOOKUP(A133,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C133" s="27">
+        <f>VLOOKUP(B133,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D133" s="29">
-        <v>0</v>
-      </c>
-      <c r="E133" s="29"/>
-      <c r="F133" s="9">
+      <c r="E133" s="29">
+        <v>0</v>
+      </c>
+      <c r="F133" s="29"/>
+      <c r="G133" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G133" s="9">
-        <v>0</v>
-      </c>
       <c r="H133" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="38">
+        <v>133</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B134" s="27">
-        <f>VLOOKUP(A134,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C134" s="27">
+        <f>VLOOKUP(B134,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D134" s="29">
-        <v>0</v>
-      </c>
-      <c r="E134" s="29"/>
-      <c r="F134" s="9">
+      <c r="E134" s="29">
+        <v>0</v>
+      </c>
+      <c r="F134" s="29"/>
+      <c r="G134" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G134" s="9">
-        <v>0</v>
-      </c>
       <c r="H134" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="38">
+        <v>134</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B135" s="27">
-        <f>VLOOKUP(A135,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C135" s="27">
+        <f>VLOOKUP(B135,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D135" s="29">
-        <v>0</v>
-      </c>
-      <c r="E135" s="29"/>
-      <c r="F135" s="9">
+      <c r="E135" s="29">
+        <v>0</v>
+      </c>
+      <c r="F135" s="29"/>
+      <c r="G135" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G135" s="9">
-        <v>0</v>
-      </c>
       <c r="H135" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="38">
+        <v>135</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B136" s="27">
-        <f>VLOOKUP(A136,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C136" s="27">
+        <f>VLOOKUP(B136,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="D136" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D136" s="29">
-        <v>0</v>
-      </c>
-      <c r="E136" s="29"/>
-      <c r="F136" s="9">
+      <c r="E136" s="29">
+        <v>0</v>
+      </c>
+      <c r="F136" s="29"/>
+      <c r="G136" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G136" s="9">
-        <v>0</v>
-      </c>
       <c r="H136" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="38">
+        <v>136</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B137" s="27">
-        <f>VLOOKUP(A137,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C137" s="27">
+        <f>VLOOKUP(B137,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="D137" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D137" s="29">
-        <v>0</v>
-      </c>
-      <c r="E137" s="29"/>
-      <c r="F137" s="9">
+      <c r="E137" s="29">
+        <v>0</v>
+      </c>
+      <c r="F137" s="29"/>
+      <c r="G137" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G137" s="9">
-        <v>0</v>
-      </c>
       <c r="H137" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="38">
+        <v>137</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B138" s="27">
-        <f>VLOOKUP(A138,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C138" s="27">
+        <f>VLOOKUP(B138,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="D138" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D138" s="29">
-        <v>0</v>
-      </c>
-      <c r="E138" s="29"/>
-      <c r="F138" s="9">
+      <c r="E138" s="29">
+        <v>0</v>
+      </c>
+      <c r="F138" s="29"/>
+      <c r="G138" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G138" s="9">
-        <v>0</v>
-      </c>
       <c r="H138" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J138" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="38">
+        <v>138</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B139" s="27">
-        <f>VLOOKUP(A139,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C139" s="27">
+        <f>VLOOKUP(B139,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="D139" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D139" s="29">
-        <v>0</v>
-      </c>
-      <c r="E139" s="29"/>
-      <c r="F139" s="9">
+      <c r="E139" s="29">
+        <v>0</v>
+      </c>
+      <c r="F139" s="29"/>
+      <c r="G139" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G139" s="9">
-        <v>0</v>
-      </c>
       <c r="H139" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="38">
+        <v>139</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B140" s="27">
-        <f>VLOOKUP(A140,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C140" s="27">
+        <f>VLOOKUP(B140,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="D140" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D140" s="29">
-        <v>0</v>
-      </c>
-      <c r="E140" s="29"/>
-      <c r="F140" s="9">
+      <c r="E140" s="29">
+        <v>0</v>
+      </c>
+      <c r="F140" s="29"/>
+      <c r="G140" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G140" s="9">
-        <v>0</v>
-      </c>
       <c r="H140" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J140" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="38">
+        <v>140</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="27">
-        <f>VLOOKUP(A141,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C141" s="27">
+        <f>VLOOKUP(B141,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D141" s="29">
-        <v>0</v>
-      </c>
-      <c r="E141" s="29"/>
-      <c r="F141" s="9">
+      <c r="E141" s="29">
+        <v>0</v>
+      </c>
+      <c r="F141" s="29"/>
+      <c r="G141" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G141" s="9">
-        <v>0</v>
-      </c>
       <c r="H141" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="38">
+        <v>141</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B142" s="27">
-        <f>VLOOKUP(A142,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C142" s="27">
+        <f>VLOOKUP(B142,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>3.8266891552664415E-3</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="D142" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D142" s="29">
-        <v>0</v>
-      </c>
-      <c r="E142" s="29"/>
-      <c r="F142" s="9">
+      <c r="E142" s="29">
+        <v>0</v>
+      </c>
+      <c r="F142" s="29"/>
+      <c r="G142" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G142" s="9">
-        <v>0</v>
-      </c>
       <c r="H142" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J142" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="38">
+        <v>142</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B143" s="27">
-        <f>VLOOKUP(A143,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C143" s="27">
+        <f>VLOOKUP(B143,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D143" s="29">
-        <v>0</v>
-      </c>
-      <c r="E143" s="29"/>
-      <c r="F143" s="9">
+      <c r="E143" s="29">
+        <v>0</v>
+      </c>
+      <c r="F143" s="29"/>
+      <c r="G143" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G143" s="9">
-        <v>0</v>
-      </c>
       <c r="H143" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J143" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="38">
+        <v>143</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B144" s="27">
-        <f>VLOOKUP(A144,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C144" s="27">
+        <f>VLOOKUP(B144,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>4.829033118488469E-3</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D144" s="29">
-        <v>0</v>
-      </c>
-      <c r="E144" s="29"/>
-      <c r="F144" s="9">
+      <c r="E144" s="29">
+        <v>0</v>
+      </c>
+      <c r="F144" s="29"/>
+      <c r="G144" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G144" s="9">
-        <v>0</v>
-      </c>
       <c r="H144" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="38">
+        <v>144</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B145" s="27">
-        <f>VLOOKUP(A145,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C145" s="27">
+        <f>VLOOKUP(B145,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D145" s="36">
-        <v>1</v>
-      </c>
-      <c r="E145" s="29">
-        <v>1</v>
-      </c>
-      <c r="F145" s="9">
+      <c r="E145" s="36">
+        <v>1</v>
+      </c>
+      <c r="F145" s="29">
+        <v>1</v>
+      </c>
+      <c r="G145" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G145" s="9">
-        <v>1</v>
-      </c>
       <c r="H145" s="9">
         <v>1</v>
       </c>
       <c r="I145" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="38">
+        <v>145</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="27">
-        <f>VLOOKUP(A146,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C146" s="27">
+        <f>VLOOKUP(B146,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>0.99998540275781711</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="D146" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D146" s="29">
-        <v>0</v>
-      </c>
-      <c r="E146" s="29"/>
-      <c r="F146" s="9">
+      <c r="E146" s="29">
+        <v>0</v>
+      </c>
+      <c r="F146" s="29"/>
+      <c r="G146" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G146" s="9">
-        <v>0</v>
-      </c>
       <c r="H146" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="38">
+        <v>146</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B147" s="27">
-        <f>VLOOKUP(A147,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C147" s="27">
+        <f>VLOOKUP(B147,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="D147" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D147" s="29">
-        <v>0</v>
-      </c>
-      <c r="E147" s="29"/>
-      <c r="F147" s="9">
+      <c r="E147" s="29">
+        <v>0</v>
+      </c>
+      <c r="F147" s="29"/>
+      <c r="G147" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G147" s="9">
-        <v>0</v>
-      </c>
       <c r="H147" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="38">
+        <v>147</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B148" s="27">
-        <f>VLOOKUP(A148,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C148" s="27">
+        <f>VLOOKUP(B148,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="D148" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D148" s="29">
-        <v>0</v>
-      </c>
-      <c r="E148" s="29"/>
-      <c r="F148" s="9">
+      <c r="E148" s="29">
+        <v>0</v>
+      </c>
+      <c r="F148" s="29"/>
+      <c r="G148" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G148" s="9">
-        <v>0</v>
-      </c>
       <c r="H148" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="38">
+        <v>148</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B149" s="27">
-        <f>VLOOKUP(A149,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C149" s="27">
+        <f>VLOOKUP(B149,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="D149" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D149" s="29">
-        <v>0</v>
-      </c>
-      <c r="E149" s="29"/>
-      <c r="F149" s="9">
+      <c r="E149" s="29">
+        <v>0</v>
+      </c>
+      <c r="F149" s="29"/>
+      <c r="G149" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G149" s="9">
-        <v>0</v>
-      </c>
       <c r="H149" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="38">
+        <v>149</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B150" s="27">
-        <f>VLOOKUP(A150,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C150" s="27">
+        <f>VLOOKUP(B150,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D150" s="29">
-        <v>0</v>
-      </c>
-      <c r="E150" s="29"/>
-      <c r="F150" s="9">
+      <c r="E150" s="29">
+        <v>0</v>
+      </c>
+      <c r="F150" s="29"/>
+      <c r="G150" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G150" s="9">
-        <v>0</v>
-      </c>
       <c r="H150" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J150" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="38">
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B151" s="27">
-        <f>VLOOKUP(A151,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C151" s="27">
+        <f>VLOOKUP(B151,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="D151" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D151" s="29">
-        <v>0</v>
-      </c>
-      <c r="E151" s="29"/>
-      <c r="F151" s="9">
+      <c r="E151" s="29">
+        <v>0</v>
+      </c>
+      <c r="F151" s="29"/>
+      <c r="G151" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G151" s="9">
-        <v>0</v>
-      </c>
       <c r="H151" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="38">
+        <v>151</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B152" s="27">
-        <f>VLOOKUP(A152,Lookups!$B$2:$E$152,4,FALSE)</f>
+      <c r="C152" s="27">
+        <f>VLOOKUP(B152,Lookups!$B$2:$E$152,4,FALSE)</f>
         <v>1.5148398660415507E-2</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D152" s="29">
-        <v>0</v>
-      </c>
-      <c r="E152" s="29"/>
-      <c r="F152" s="9">
+      <c r="E152" s="29">
+        <v>0</v>
+      </c>
+      <c r="F152" s="29"/>
+      <c r="G152" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G152" s="9">
-        <v>0</v>
-      </c>
       <c r="H152" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C154" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J152" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D154" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="G154" s="6">
-        <f>SUM(G2:G152)</f>
-        <v>43</v>
+      <c r="F154" s="39">
+        <f>SUM(F2:F152)</f>
+        <v>34</v>
       </c>
       <c r="H154" s="6">
         <f>SUM(H2:H152)</f>
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="I154" s="6">
         <f>SUM(I2:I152)</f>
+        <v>130</v>
+      </c>
+      <c r="J154" s="6">
+        <f>SUM(J2:J152)</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
-    <sortCondition ref="A2:A101"/>
+  <autoFilter ref="B1:D129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D101">
+    <sortCondition ref="B2:B101"/>
   </sortState>
-  <conditionalFormatting sqref="F2:F152">
+  <conditionalFormatting sqref="G2:G152">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6976,8 +7448,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="portrait" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
